--- a/(1분반)2013136030_김택수조_마이크로프로세서_재료구매신청서.xlsx
+++ b/(1분반)2013136030_김택수조_마이크로프로세서_재료구매신청서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnals\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\대학원\조교\2016년 2학기\마이크로프로세서\stu\2013136030-2013136079-2013136107\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>과제명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,10 @@
   </si>
   <si>
     <t>2013136030, 2013136079, 2013136107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개조 할 수 있다면 구매하셔도 좋습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,8 +173,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,6 +193,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -245,15 +262,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -269,6 +289,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -278,11 +301,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="나쁨" xfId="2" builtinId="27"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
@@ -348,7 +375,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>1247775</xdr:rowOff>
     </xdr:to>
@@ -825,85 +852,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="43" customWidth="1"/>
     <col min="3" max="3" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="6.25" customWidth="1"/>
-    <col min="6" max="6" width="200.25" customWidth="1"/>
+    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="194.375" customWidth="1"/>
     <col min="7" max="7" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -926,28 +953,31 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+    <row r="7" spans="1:8" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="10">
         <v>42300</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="9">
         <v>1</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="10">
         <v>42300</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G7" s="9"/>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2</v>
       </c>
@@ -968,7 +998,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>3</v>
       </c>
@@ -988,7 +1018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>4</v>
       </c>
@@ -1008,7 +1038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>5</v>
       </c>
@@ -1029,7 +1059,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -1050,7 +1080,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1059,7 +1089,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1068,7 +1098,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1077,7 +1107,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1093,7 +1123,7 @@
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="5">
         <v>62900</v>
       </c>
       <c r="F17" s="2"/>
